--- a/ex.xlsx
+++ b/ex.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6733C25F-F7DF-482C-AB6D-E01C0D06DBEF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55F0096-0510-4329-B891-47D009340221}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="6">
   <si>
     <t>1.0</t>
   </si>
@@ -44,7 +44,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,13 +52,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -70,15 +96,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Нейтральный" xfId="2" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -356,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -369,62 +405,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
+      <c r="A1" s="3">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" t="s">
         <v>3</v>
       </c>
     </row>

--- a/ex.xlsx
+++ b/ex.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55F0096-0510-4329-B891-47D009340221}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B43ED39-A0EF-40BC-8783-3EA60E8D1A59}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="7">
   <si>
     <t>1.0</t>
   </si>
@@ -28,16 +28,19 @@
     <t>0.5</t>
   </si>
   <si>
-    <t>-1.5</t>
-  </si>
-  <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>-0.7</t>
-  </si>
-  <si>
-    <t>-1.0</t>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.2</t>
   </si>
 </sst>
 </file>
@@ -392,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,19 +472,99 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3</v>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
